--- a/Dades.xlsx
+++ b/Dades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26312"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csanchez\Desktop\InfTec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="11_0ED3709154C2A57A22FEEE5710DD4FBC741E38DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C657D2FC-EA30-4028-8932-EF4E00947275}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Colleccions-Publicacions" sheetId="4" r:id="rId1"/>
@@ -454,8 +453,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -667,6 +666,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,35 +946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S430"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="10" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="10"/>
-    <col min="9" max="10" width="11.42578125" style="24"/>
-    <col min="11" max="11" width="9.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="7"/>
-    <col min="15" max="15" width="18.28515625" style="7" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="7"/>
-    <col min="18" max="18" width="18.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="19.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="10" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" style="10"/>
+    <col min="9" max="10" width="11.44140625" style="24"/>
+    <col min="11" max="11" width="9.5546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="7"/>
+    <col min="15" max="15" width="18.33203125" style="7" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="7"/>
+    <col min="18" max="18" width="18.5546875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>51</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="13">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="J21" s="13">
         <v>2006</v>
@@ -2213,7 +2213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>51</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>51</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2571,7 +2571,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2583,7 +2583,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2595,7 +2595,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2608,7 +2608,7 @@
       <c r="J31" s="21"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2620,7 +2620,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2632,7 +2632,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2644,7 +2644,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2656,7 +2656,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2664,11 +2664,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2680,7 +2680,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2692,7 +2692,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2704,7 +2704,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2716,7 +2716,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2728,7 +2728,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2740,7 +2740,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2752,7 +2752,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2764,7 +2764,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2776,7 +2776,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2788,7 +2788,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2800,7 +2800,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2812,7 +2812,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2824,7 +2824,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2836,7 +2836,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2848,7 +2848,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2860,7 +2860,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2872,7 +2872,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2884,7 +2884,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2896,7 +2896,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2908,7 +2908,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2920,7 +2920,7 @@
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2932,7 +2932,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2944,7 +2944,7 @@
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2956,7 +2956,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2968,7 +2968,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2980,7 +2980,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2992,7 +2992,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3004,7 +3004,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3016,7 +3016,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3028,7 +3028,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3040,7 +3040,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3052,7 +3052,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3064,7 +3064,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3076,7 +3076,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3088,7 +3088,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3100,7 +3100,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3112,7 +3112,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3124,7 +3124,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3136,7 +3136,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3148,7 +3148,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3160,7 +3160,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3172,7 +3172,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3184,7 +3184,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3196,7 +3196,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3208,7 +3208,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3220,7 +3220,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3232,7 +3232,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3244,7 +3244,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3256,7 +3256,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3268,7 +3268,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3280,7 +3280,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3292,7 +3292,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3304,7 +3304,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3316,7 +3316,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3328,7 +3328,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3340,7 +3340,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3352,7 +3352,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3364,7 +3364,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3376,7 +3376,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3388,7 +3388,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3400,7 +3400,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3412,7 +3412,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3424,7 +3424,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3436,7 +3436,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3448,7 +3448,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3460,7 +3460,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3472,7 +3472,7 @@
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3484,7 +3484,7 @@
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3496,7 +3496,7 @@
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3508,7 +3508,7 @@
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3520,7 +3520,7 @@
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3532,7 +3532,7 @@
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3544,7 +3544,7 @@
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3556,7 +3556,7 @@
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3568,7 +3568,7 @@
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3580,7 +3580,7 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3592,7 +3592,7 @@
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3604,7 +3604,7 @@
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3616,7 +3616,7 @@
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3628,7 +3628,7 @@
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3640,7 +3640,7 @@
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3652,7 +3652,7 @@
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3664,7 +3664,7 @@
       <c r="I119" s="21"/>
       <c r="J119" s="21"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3676,7 +3676,7 @@
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3688,7 +3688,7 @@
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3700,7 +3700,7 @@
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3712,7 +3712,7 @@
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3724,7 +3724,7 @@
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3736,7 +3736,7 @@
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3748,7 +3748,7 @@
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3760,7 +3760,7 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3772,7 +3772,7 @@
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3784,7 +3784,7 @@
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3796,7 +3796,7 @@
       <c r="I130" s="21"/>
       <c r="J130" s="21"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3808,7 +3808,7 @@
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3820,7 +3820,7 @@
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -3832,7 +3832,7 @@
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -3844,7 +3844,7 @@
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -3856,7 +3856,7 @@
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -3868,7 +3868,7 @@
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -3880,7 +3880,7 @@
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -3892,7 +3892,7 @@
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -3904,7 +3904,7 @@
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -3916,7 +3916,7 @@
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -3928,7 +3928,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -3940,7 +3940,7 @@
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -3952,7 +3952,7 @@
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -3964,7 +3964,7 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -3976,7 +3976,7 @@
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -3988,7 +3988,7 @@
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -4000,7 +4000,7 @@
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -4012,7 +4012,7 @@
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -4024,7 +4024,7 @@
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -4036,7 +4036,7 @@
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -4048,7 +4048,7 @@
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -4060,7 +4060,7 @@
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -4072,7 +4072,7 @@
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -4084,7 +4084,7 @@
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -4096,7 +4096,7 @@
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -4108,7 +4108,7 @@
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -4120,7 +4120,7 @@
       <c r="I157" s="21"/>
       <c r="J157" s="21"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -4132,7 +4132,7 @@
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -4144,7 +4144,7 @@
       <c r="I159" s="21"/>
       <c r="J159" s="21"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -4156,7 +4156,7 @@
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -4168,7 +4168,7 @@
       <c r="I161" s="21"/>
       <c r="J161" s="21"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -4180,7 +4180,7 @@
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -4192,7 +4192,7 @@
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -4204,7 +4204,7 @@
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -4216,7 +4216,7 @@
       <c r="I165" s="21"/>
       <c r="J165" s="21"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -4228,7 +4228,7 @@
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -4240,7 +4240,7 @@
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -4252,7 +4252,7 @@
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -4264,7 +4264,7 @@
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -4276,7 +4276,7 @@
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -4288,7 +4288,7 @@
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -4300,7 +4300,7 @@
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -4312,7 +4312,7 @@
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -4324,7 +4324,7 @@
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -4336,7 +4336,7 @@
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -4348,7 +4348,7 @@
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -4360,7 +4360,7 @@
       <c r="I177" s="21"/>
       <c r="J177" s="21"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -4372,7 +4372,7 @@
       <c r="I178" s="21"/>
       <c r="J178" s="21"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -4384,7 +4384,7 @@
       <c r="I179" s="21"/>
       <c r="J179" s="21"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -4396,7 +4396,7 @@
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -4408,7 +4408,7 @@
       <c r="I181" s="21"/>
       <c r="J181" s="21"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -4420,7 +4420,7 @@
       <c r="I182" s="21"/>
       <c r="J182" s="21"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -4432,7 +4432,7 @@
       <c r="I183" s="21"/>
       <c r="J183" s="21"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -4444,7 +4444,7 @@
       <c r="I184" s="21"/>
       <c r="J184" s="21"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -4456,7 +4456,7 @@
       <c r="I185" s="21"/>
       <c r="J185" s="21"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -4468,7 +4468,7 @@
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -4480,7 +4480,7 @@
       <c r="I187" s="21"/>
       <c r="J187" s="21"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -4492,7 +4492,7 @@
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -4504,7 +4504,7 @@
       <c r="I189" s="21"/>
       <c r="J189" s="21"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -4516,7 +4516,7 @@
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -4528,7 +4528,7 @@
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -4540,7 +4540,7 @@
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -4552,7 +4552,7 @@
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -4564,7 +4564,7 @@
       <c r="I194" s="21"/>
       <c r="J194" s="21"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -4576,7 +4576,7 @@
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -4588,7 +4588,7 @@
       <c r="I196" s="21"/>
       <c r="J196" s="21"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -4600,7 +4600,7 @@
       <c r="I197" s="21"/>
       <c r="J197" s="21"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -4612,7 +4612,7 @@
       <c r="I198" s="21"/>
       <c r="J198" s="21"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -4624,7 +4624,7 @@
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -4636,7 +4636,7 @@
       <c r="I200" s="21"/>
       <c r="J200" s="21"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -4648,7 +4648,7 @@
       <c r="I201" s="21"/>
       <c r="J201" s="21"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -4660,7 +4660,7 @@
       <c r="I202" s="21"/>
       <c r="J202" s="21"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -4672,7 +4672,7 @@
       <c r="I203" s="21"/>
       <c r="J203" s="21"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -4684,7 +4684,7 @@
       <c r="I204" s="21"/>
       <c r="J204" s="21"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -4696,7 +4696,7 @@
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -4708,7 +4708,7 @@
       <c r="I206" s="21"/>
       <c r="J206" s="21"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -4720,7 +4720,7 @@
       <c r="I207" s="21"/>
       <c r="J207" s="21"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -4732,7 +4732,7 @@
       <c r="I208" s="21"/>
       <c r="J208" s="21"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -4744,7 +4744,7 @@
       <c r="I209" s="21"/>
       <c r="J209" s="21"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4756,7 +4756,7 @@
       <c r="I210" s="21"/>
       <c r="J210" s="21"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -4768,7 +4768,7 @@
       <c r="I211" s="21"/>
       <c r="J211" s="21"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -4780,7 +4780,7 @@
       <c r="I212" s="21"/>
       <c r="J212" s="21"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -4792,7 +4792,7 @@
       <c r="I213" s="21"/>
       <c r="J213" s="21"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -4804,7 +4804,7 @@
       <c r="I214" s="21"/>
       <c r="J214" s="21"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -4816,7 +4816,7 @@
       <c r="I215" s="21"/>
       <c r="J215" s="21"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -4828,7 +4828,7 @@
       <c r="I216" s="21"/>
       <c r="J216" s="21"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -4840,7 +4840,7 @@
       <c r="I217" s="21"/>
       <c r="J217" s="21"/>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -4852,7 +4852,7 @@
       <c r="I218" s="21"/>
       <c r="J218" s="21"/>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -4864,7 +4864,7 @@
       <c r="I219" s="21"/>
       <c r="J219" s="21"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -4876,7 +4876,7 @@
       <c r="I220" s="21"/>
       <c r="J220" s="21"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -4888,7 +4888,7 @@
       <c r="I221" s="21"/>
       <c r="J221" s="21"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -4900,7 +4900,7 @@
       <c r="I222" s="21"/>
       <c r="J222" s="21"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -4912,7 +4912,7 @@
       <c r="I223" s="21"/>
       <c r="J223" s="21"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -4924,7 +4924,7 @@
       <c r="I224" s="21"/>
       <c r="J224" s="21"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -4936,7 +4936,7 @@
       <c r="I225" s="21"/>
       <c r="J225" s="21"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -4948,7 +4948,7 @@
       <c r="I226" s="21"/>
       <c r="J226" s="21"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -4960,7 +4960,7 @@
       <c r="I227" s="21"/>
       <c r="J227" s="21"/>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -4972,7 +4972,7 @@
       <c r="I228" s="21"/>
       <c r="J228" s="21"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -4984,7 +4984,7 @@
       <c r="I229" s="21"/>
       <c r="J229" s="21"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -4996,7 +4996,7 @@
       <c r="I230" s="21"/>
       <c r="J230" s="21"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -5008,7 +5008,7 @@
       <c r="I231" s="21"/>
       <c r="J231" s="21"/>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -5020,7 +5020,7 @@
       <c r="I232" s="21"/>
       <c r="J232" s="21"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -5032,7 +5032,7 @@
       <c r="I233" s="21"/>
       <c r="J233" s="21"/>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -5044,7 +5044,7 @@
       <c r="I234" s="21"/>
       <c r="J234" s="21"/>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -5056,7 +5056,7 @@
       <c r="I235" s="21"/>
       <c r="J235" s="21"/>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -5068,7 +5068,7 @@
       <c r="I236" s="21"/>
       <c r="J236" s="21"/>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -5080,7 +5080,7 @@
       <c r="I237" s="21"/>
       <c r="J237" s="21"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -5092,7 +5092,7 @@
       <c r="I238" s="21"/>
       <c r="J238" s="21"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -5104,7 +5104,7 @@
       <c r="I239" s="21"/>
       <c r="J239" s="21"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -5116,7 +5116,7 @@
       <c r="I240" s="21"/>
       <c r="J240" s="21"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -5128,7 +5128,7 @@
       <c r="I241" s="21"/>
       <c r="J241" s="21"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -5140,7 +5140,7 @@
       <c r="I242" s="21"/>
       <c r="J242" s="21"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -5152,7 +5152,7 @@
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -5164,7 +5164,7 @@
       <c r="I244" s="21"/>
       <c r="J244" s="21"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -5176,7 +5176,7 @@
       <c r="I245" s="21"/>
       <c r="J245" s="21"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -5188,7 +5188,7 @@
       <c r="I246" s="21"/>
       <c r="J246" s="21"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -5200,7 +5200,7 @@
       <c r="I247" s="21"/>
       <c r="J247" s="21"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -5212,7 +5212,7 @@
       <c r="I248" s="21"/>
       <c r="J248" s="21"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -5224,7 +5224,7 @@
       <c r="I249" s="21"/>
       <c r="J249" s="21"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -5236,7 +5236,7 @@
       <c r="I250" s="21"/>
       <c r="J250" s="21"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -5248,7 +5248,7 @@
       <c r="I251" s="21"/>
       <c r="J251" s="21"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -5260,7 +5260,7 @@
       <c r="I252" s="21"/>
       <c r="J252" s="21"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -5272,7 +5272,7 @@
       <c r="I253" s="21"/>
       <c r="J253" s="21"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -5284,7 +5284,7 @@
       <c r="I254" s="21"/>
       <c r="J254" s="21"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -5296,7 +5296,7 @@
       <c r="I255" s="21"/>
       <c r="J255" s="21"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -5308,7 +5308,7 @@
       <c r="I256" s="21"/>
       <c r="J256" s="21"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -5320,7 +5320,7 @@
       <c r="I257" s="21"/>
       <c r="J257" s="21"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -5332,7 +5332,7 @@
       <c r="I258" s="21"/>
       <c r="J258" s="21"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -5344,7 +5344,7 @@
       <c r="I259" s="21"/>
       <c r="J259" s="21"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -5356,7 +5356,7 @@
       <c r="I260" s="21"/>
       <c r="J260" s="21"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -5368,7 +5368,7 @@
       <c r="I261" s="21"/>
       <c r="J261" s="21"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -5380,7 +5380,7 @@
       <c r="I262" s="21"/>
       <c r="J262" s="21"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -5392,7 +5392,7 @@
       <c r="I263" s="21"/>
       <c r="J263" s="21"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -5404,7 +5404,7 @@
       <c r="I264" s="21"/>
       <c r="J264" s="21"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -5416,7 +5416,7 @@
       <c r="I265" s="21"/>
       <c r="J265" s="21"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -5428,7 +5428,7 @@
       <c r="I266" s="21"/>
       <c r="J266" s="21"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -5440,7 +5440,7 @@
       <c r="I267" s="21"/>
       <c r="J267" s="21"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -5452,7 +5452,7 @@
       <c r="I268" s="21"/>
       <c r="J268" s="21"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -5464,7 +5464,7 @@
       <c r="I269" s="21"/>
       <c r="J269" s="21"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -5476,7 +5476,7 @@
       <c r="I270" s="21"/>
       <c r="J270" s="21"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -5488,7 +5488,7 @@
       <c r="I271" s="21"/>
       <c r="J271" s="21"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -5500,7 +5500,7 @@
       <c r="I272" s="21"/>
       <c r="J272" s="21"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -5512,7 +5512,7 @@
       <c r="I273" s="21"/>
       <c r="J273" s="21"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -5524,7 +5524,7 @@
       <c r="I274" s="21"/>
       <c r="J274" s="21"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -5536,7 +5536,7 @@
       <c r="I275" s="21"/>
       <c r="J275" s="21"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -5548,7 +5548,7 @@
       <c r="I276" s="21"/>
       <c r="J276" s="21"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -5560,7 +5560,7 @@
       <c r="I277" s="21"/>
       <c r="J277" s="21"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -5572,7 +5572,7 @@
       <c r="I278" s="21"/>
       <c r="J278" s="21"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -5584,7 +5584,7 @@
       <c r="I279" s="21"/>
       <c r="J279" s="21"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -5596,7 +5596,7 @@
       <c r="I280" s="21"/>
       <c r="J280" s="21"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -5608,7 +5608,7 @@
       <c r="I281" s="21"/>
       <c r="J281" s="21"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -5620,7 +5620,7 @@
       <c r="I282" s="21"/>
       <c r="J282" s="21"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -5632,7 +5632,7 @@
       <c r="I283" s="21"/>
       <c r="J283" s="21"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -5644,7 +5644,7 @@
       <c r="I284" s="21"/>
       <c r="J284" s="21"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -5656,7 +5656,7 @@
       <c r="I285" s="21"/>
       <c r="J285" s="21"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -5668,7 +5668,7 @@
       <c r="I286" s="21"/>
       <c r="J286" s="21"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -5680,7 +5680,7 @@
       <c r="I287" s="21"/>
       <c r="J287" s="21"/>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -5692,7 +5692,7 @@
       <c r="I288" s="21"/>
       <c r="J288" s="21"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -5704,7 +5704,7 @@
       <c r="I289" s="21"/>
       <c r="J289" s="21"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -5716,7 +5716,7 @@
       <c r="I290" s="21"/>
       <c r="J290" s="21"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -5728,7 +5728,7 @@
       <c r="I291" s="21"/>
       <c r="J291" s="21"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -5740,7 +5740,7 @@
       <c r="I292" s="21"/>
       <c r="J292" s="21"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -5752,7 +5752,7 @@
       <c r="I293" s="21"/>
       <c r="J293" s="21"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -5764,7 +5764,7 @@
       <c r="I294" s="21"/>
       <c r="J294" s="21"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -5776,7 +5776,7 @@
       <c r="I295" s="21"/>
       <c r="J295" s="21"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -5788,7 +5788,7 @@
       <c r="I296" s="21"/>
       <c r="J296" s="21"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -5800,7 +5800,7 @@
       <c r="I297" s="21"/>
       <c r="J297" s="21"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -5812,7 +5812,7 @@
       <c r="I298" s="21"/>
       <c r="J298" s="21"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -5824,7 +5824,7 @@
       <c r="I299" s="21"/>
       <c r="J299" s="21"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -5836,7 +5836,7 @@
       <c r="I300" s="21"/>
       <c r="J300" s="21"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -5848,7 +5848,7 @@
       <c r="I301" s="21"/>
       <c r="J301" s="21"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -5860,7 +5860,7 @@
       <c r="I302" s="21"/>
       <c r="J302" s="21"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -5872,7 +5872,7 @@
       <c r="I303" s="21"/>
       <c r="J303" s="21"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -5884,7 +5884,7 @@
       <c r="I304" s="21"/>
       <c r="J304" s="21"/>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -5896,7 +5896,7 @@
       <c r="I305" s="21"/>
       <c r="J305" s="21"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -5908,7 +5908,7 @@
       <c r="I306" s="21"/>
       <c r="J306" s="21"/>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -5920,7 +5920,7 @@
       <c r="I307" s="21"/>
       <c r="J307" s="21"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -5932,7 +5932,7 @@
       <c r="I308" s="21"/>
       <c r="J308" s="21"/>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -5944,7 +5944,7 @@
       <c r="I309" s="21"/>
       <c r="J309" s="21"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -5956,7 +5956,7 @@
       <c r="I310" s="21"/>
       <c r="J310" s="21"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -5968,7 +5968,7 @@
       <c r="I311" s="21"/>
       <c r="J311" s="21"/>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -5980,7 +5980,7 @@
       <c r="I312" s="21"/>
       <c r="J312" s="21"/>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -5992,7 +5992,7 @@
       <c r="I313" s="21"/>
       <c r="J313" s="21"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -6004,7 +6004,7 @@
       <c r="I314" s="21"/>
       <c r="J314" s="21"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -6016,7 +6016,7 @@
       <c r="I315" s="21"/>
       <c r="J315" s="21"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -6028,7 +6028,7 @@
       <c r="I316" s="21"/>
       <c r="J316" s="21"/>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -6040,7 +6040,7 @@
       <c r="I317" s="21"/>
       <c r="J317" s="21"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -6052,7 +6052,7 @@
       <c r="I318" s="21"/>
       <c r="J318" s="21"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -6064,7 +6064,7 @@
       <c r="I319" s="21"/>
       <c r="J319" s="21"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -6076,7 +6076,7 @@
       <c r="I320" s="21"/>
       <c r="J320" s="21"/>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -6088,7 +6088,7 @@
       <c r="I321" s="21"/>
       <c r="J321" s="21"/>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -6100,7 +6100,7 @@
       <c r="I322" s="21"/>
       <c r="J322" s="21"/>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -6112,7 +6112,7 @@
       <c r="I323" s="21"/>
       <c r="J323" s="21"/>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -6124,7 +6124,7 @@
       <c r="I324" s="21"/>
       <c r="J324" s="21"/>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -6136,7 +6136,7 @@
       <c r="I325" s="21"/>
       <c r="J325" s="21"/>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -6148,7 +6148,7 @@
       <c r="I326" s="21"/>
       <c r="J326" s="21"/>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -6160,7 +6160,7 @@
       <c r="I327" s="21"/>
       <c r="J327" s="21"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -6172,7 +6172,7 @@
       <c r="I328" s="21"/>
       <c r="J328" s="21"/>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -6184,7 +6184,7 @@
       <c r="I329" s="21"/>
       <c r="J329" s="21"/>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -6196,7 +6196,7 @@
       <c r="I330" s="21"/>
       <c r="J330" s="21"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -6208,7 +6208,7 @@
       <c r="I331" s="21"/>
       <c r="J331" s="21"/>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -6220,7 +6220,7 @@
       <c r="I332" s="21"/>
       <c r="J332" s="21"/>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -6232,7 +6232,7 @@
       <c r="I333" s="21"/>
       <c r="J333" s="21"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -6244,7 +6244,7 @@
       <c r="I334" s="21"/>
       <c r="J334" s="21"/>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -6256,7 +6256,7 @@
       <c r="I335" s="21"/>
       <c r="J335" s="21"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -6268,7 +6268,7 @@
       <c r="I336" s="21"/>
       <c r="J336" s="21"/>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -6280,7 +6280,7 @@
       <c r="I337" s="21"/>
       <c r="J337" s="21"/>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -6292,7 +6292,7 @@
       <c r="I338" s="21"/>
       <c r="J338" s="21"/>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -6304,7 +6304,7 @@
       <c r="I339" s="21"/>
       <c r="J339" s="21"/>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -6316,7 +6316,7 @@
       <c r="I340" s="21"/>
       <c r="J340" s="21"/>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -6328,7 +6328,7 @@
       <c r="I341" s="21"/>
       <c r="J341" s="21"/>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -6340,7 +6340,7 @@
       <c r="I342" s="21"/>
       <c r="J342" s="21"/>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -6352,7 +6352,7 @@
       <c r="I343" s="21"/>
       <c r="J343" s="21"/>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -6364,7 +6364,7 @@
       <c r="I344" s="21"/>
       <c r="J344" s="21"/>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -6376,7 +6376,7 @@
       <c r="I345" s="21"/>
       <c r="J345" s="21"/>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -6388,7 +6388,7 @@
       <c r="I346" s="21"/>
       <c r="J346" s="21"/>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -6400,7 +6400,7 @@
       <c r="I347" s="21"/>
       <c r="J347" s="21"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -6412,7 +6412,7 @@
       <c r="I348" s="21"/>
       <c r="J348" s="21"/>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -6424,7 +6424,7 @@
       <c r="I349" s="21"/>
       <c r="J349" s="21"/>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -6436,7 +6436,7 @@
       <c r="I350" s="21"/>
       <c r="J350" s="21"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -6448,7 +6448,7 @@
       <c r="I351" s="21"/>
       <c r="J351" s="21"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -6460,7 +6460,7 @@
       <c r="I352" s="21"/>
       <c r="J352" s="21"/>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -6472,7 +6472,7 @@
       <c r="I353" s="21"/>
       <c r="J353" s="21"/>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -6484,7 +6484,7 @@
       <c r="I354" s="21"/>
       <c r="J354" s="21"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -6496,7 +6496,7 @@
       <c r="I355" s="21"/>
       <c r="J355" s="21"/>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -6508,7 +6508,7 @@
       <c r="I356" s="21"/>
       <c r="J356" s="21"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -6520,7 +6520,7 @@
       <c r="I357" s="21"/>
       <c r="J357" s="21"/>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -6532,7 +6532,7 @@
       <c r="I358" s="21"/>
       <c r="J358" s="21"/>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -6544,7 +6544,7 @@
       <c r="I359" s="21"/>
       <c r="J359" s="21"/>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -6556,7 +6556,7 @@
       <c r="I360" s="21"/>
       <c r="J360" s="21"/>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -6568,7 +6568,7 @@
       <c r="I361" s="21"/>
       <c r="J361" s="21"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -6580,7 +6580,7 @@
       <c r="I362" s="21"/>
       <c r="J362" s="21"/>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -6592,7 +6592,7 @@
       <c r="I363" s="21"/>
       <c r="J363" s="21"/>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -6604,7 +6604,7 @@
       <c r="I364" s="21"/>
       <c r="J364" s="21"/>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -6616,7 +6616,7 @@
       <c r="I365" s="21"/>
       <c r="J365" s="21"/>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -6628,7 +6628,7 @@
       <c r="I366" s="21"/>
       <c r="J366" s="21"/>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -6640,7 +6640,7 @@
       <c r="I367" s="21"/>
       <c r="J367" s="21"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -6652,7 +6652,7 @@
       <c r="I368" s="21"/>
       <c r="J368" s="21"/>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -6664,7 +6664,7 @@
       <c r="I369" s="21"/>
       <c r="J369" s="21"/>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -6676,7 +6676,7 @@
       <c r="I370" s="21"/>
       <c r="J370" s="21"/>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -6688,7 +6688,7 @@
       <c r="I371" s="21"/>
       <c r="J371" s="21"/>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -6700,7 +6700,7 @@
       <c r="I372" s="21"/>
       <c r="J372" s="21"/>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -6712,7 +6712,7 @@
       <c r="I373" s="21"/>
       <c r="J373" s="21"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -6724,7 +6724,7 @@
       <c r="I374" s="21"/>
       <c r="J374" s="21"/>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -6736,7 +6736,7 @@
       <c r="I375" s="21"/>
       <c r="J375" s="21"/>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -6748,7 +6748,7 @@
       <c r="I376" s="21"/>
       <c r="J376" s="21"/>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -6760,7 +6760,7 @@
       <c r="I377" s="21"/>
       <c r="J377" s="21"/>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -6772,7 +6772,7 @@
       <c r="I378" s="21"/>
       <c r="J378" s="21"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -6784,7 +6784,7 @@
       <c r="I379" s="21"/>
       <c r="J379" s="21"/>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -6796,7 +6796,7 @@
       <c r="I380" s="21"/>
       <c r="J380" s="21"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -6808,7 +6808,7 @@
       <c r="I381" s="21"/>
       <c r="J381" s="21"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -6820,7 +6820,7 @@
       <c r="I382" s="21"/>
       <c r="J382" s="21"/>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -6832,7 +6832,7 @@
       <c r="I383" s="21"/>
       <c r="J383" s="21"/>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -6844,7 +6844,7 @@
       <c r="I384" s="21"/>
       <c r="J384" s="21"/>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -6856,7 +6856,7 @@
       <c r="I385" s="21"/>
       <c r="J385" s="21"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -6868,7 +6868,7 @@
       <c r="I386" s="21"/>
       <c r="J386" s="21"/>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -6880,7 +6880,7 @@
       <c r="I387" s="21"/>
       <c r="J387" s="21"/>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -6892,7 +6892,7 @@
       <c r="I388" s="21"/>
       <c r="J388" s="21"/>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -6904,7 +6904,7 @@
       <c r="I389" s="21"/>
       <c r="J389" s="21"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -6916,7 +6916,7 @@
       <c r="I390" s="21"/>
       <c r="J390" s="21"/>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -6928,7 +6928,7 @@
       <c r="I391" s="21"/>
       <c r="J391" s="21"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -6940,7 +6940,7 @@
       <c r="I392" s="21"/>
       <c r="J392" s="21"/>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -6952,7 +6952,7 @@
       <c r="I393" s="21"/>
       <c r="J393" s="21"/>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -6964,7 +6964,7 @@
       <c r="I394" s="21"/>
       <c r="J394" s="21"/>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -6976,7 +6976,7 @@
       <c r="I395" s="21"/>
       <c r="J395" s="21"/>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -6988,7 +6988,7 @@
       <c r="I396" s="21"/>
       <c r="J396" s="21"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -7000,7 +7000,7 @@
       <c r="I397" s="21"/>
       <c r="J397" s="21"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -7012,7 +7012,7 @@
       <c r="I398" s="21"/>
       <c r="J398" s="21"/>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -7024,7 +7024,7 @@
       <c r="I399" s="21"/>
       <c r="J399" s="21"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -7036,7 +7036,7 @@
       <c r="I400" s="21"/>
       <c r="J400" s="21"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -7048,7 +7048,7 @@
       <c r="I401" s="21"/>
       <c r="J401" s="21"/>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -7060,7 +7060,7 @@
       <c r="I402" s="21"/>
       <c r="J402" s="21"/>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -7072,7 +7072,7 @@
       <c r="I403" s="21"/>
       <c r="J403" s="21"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -7084,7 +7084,7 @@
       <c r="I404" s="21"/>
       <c r="J404" s="21"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -7096,7 +7096,7 @@
       <c r="I405" s="21"/>
       <c r="J405" s="21"/>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -7108,7 +7108,7 @@
       <c r="I406" s="21"/>
       <c r="J406" s="21"/>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -7120,7 +7120,7 @@
       <c r="I407" s="21"/>
       <c r="J407" s="21"/>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -7132,7 +7132,7 @@
       <c r="I408" s="21"/>
       <c r="J408" s="21"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -7144,7 +7144,7 @@
       <c r="I409" s="21"/>
       <c r="J409" s="21"/>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -7156,7 +7156,7 @@
       <c r="I410" s="21"/>
       <c r="J410" s="21"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -7168,7 +7168,7 @@
       <c r="I411" s="21"/>
       <c r="J411" s="21"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -7180,7 +7180,7 @@
       <c r="I412" s="21"/>
       <c r="J412" s="21"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -7192,7 +7192,7 @@
       <c r="I413" s="21"/>
       <c r="J413" s="21"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7204,7 +7204,7 @@
       <c r="I414" s="21"/>
       <c r="J414" s="21"/>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -7216,7 +7216,7 @@
       <c r="I415" s="21"/>
       <c r="J415" s="21"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -7228,7 +7228,7 @@
       <c r="I416" s="21"/>
       <c r="J416" s="21"/>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -7240,7 +7240,7 @@
       <c r="I417" s="21"/>
       <c r="J417" s="21"/>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -7252,7 +7252,7 @@
       <c r="I418" s="21"/>
       <c r="J418" s="21"/>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -7264,7 +7264,7 @@
       <c r="I419" s="21"/>
       <c r="J419" s="21"/>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -7276,7 +7276,7 @@
       <c r="I420" s="21"/>
       <c r="J420" s="21"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -7288,7 +7288,7 @@
       <c r="I421" s="21"/>
       <c r="J421" s="21"/>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -7300,7 +7300,7 @@
       <c r="I422" s="21"/>
       <c r="J422" s="21"/>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -7312,7 +7312,7 @@
       <c r="I423" s="21"/>
       <c r="J423" s="21"/>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -7324,7 +7324,7 @@
       <c r="I424" s="21"/>
       <c r="J424" s="21"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -7336,7 +7336,7 @@
       <c r="I425" s="21"/>
       <c r="J425" s="21"/>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -7348,7 +7348,7 @@
       <c r="I426" s="21"/>
       <c r="J426" s="21"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -7360,7 +7360,7 @@
       <c r="I427" s="21"/>
       <c r="J427" s="21"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -7372,7 +7372,7 @@
       <c r="I428" s="21"/>
       <c r="J428" s="21"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -7384,7 +7384,7 @@
       <c r="I429" s="21"/>
       <c r="J429" s="21"/>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="17"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -7402,20 +7402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9BAE71-AF41-41C4-9FA6-63DF5362D186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>98</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>99</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>98</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>36</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>98</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>100</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>100</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>36</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>98</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>100</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>98</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>100</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>103</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>105</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>105</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -8280,20 +8280,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA8378-E92F-4DAA-B554-B717598D2509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>113</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>119</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>133</v>
       </c>
@@ -8435,17 +8435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ccf254e-613b-40ae-9d25-34ba04b0fb1f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32552f32-68db-4abd-b130-6db5958d96d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8B0372F05AC2B44A4243ABEC31654B3" ma:contentTypeVersion="16" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="1af36a0d8c0db2f75a0d8d852e970196">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ccf254e-613b-40ae-9d25-34ba04b0fb1f" xmlns:ns3="32552f32-68db-4abd-b130-6db5958d96d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0774d24cdc985c304565bbe1230b640e" ns2:_="" ns3:_="">
     <xsd:import namespace="4ccf254e-613b-40ae-9d25-34ba04b0fb1f"/>
@@ -8688,7 +8677,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8697,14 +8686,51 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ccf254e-613b-40ae-9d25-34ba04b0fb1f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32552f32-68db-4abd-b130-6db5958d96d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC4B95-5B55-4857-A1B5-33015EB23B0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FB470D-9C2B-444E-8981-32525EBE5289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4ccf254e-613b-40ae-9d25-34ba04b0fb1f"/>
+    <ds:schemaRef ds:uri="32552f32-68db-4abd-b130-6db5958d96d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FB470D-9C2B-444E-8981-32525EBE5289}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6012E4BA-D641-4E5E-950C-B2E18D787BB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6012E4BA-D641-4E5E-950C-B2E18D787BB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC4B95-5B55-4857-A1B5-33015EB23B0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ccf254e-613b-40ae-9d25-34ba04b0fb1f"/>
+    <ds:schemaRef ds:uri="32552f32-68db-4abd-b130-6db5958d96d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>